--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2526.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2526.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.583906969500825</v>
+        <v>2.240651607513428</v>
       </c>
       <c r="B1">
-        <v>3.646303967811379</v>
+        <v>2.331485271453857</v>
       </c>
       <c r="C1">
-        <v>3.276165895936304</v>
+        <v>2.417727708816528</v>
       </c>
       <c r="D1">
-        <v>1.730736854685001</v>
+        <v>3.19929051399231</v>
       </c>
       <c r="E1">
-        <v>1.716625085764609</v>
+        <v>2.386465311050415</v>
       </c>
     </row>
   </sheetData>
